--- a/Krzysztof_Lipski_lab_9_i_10/dane_sekwencji.xlsx
+++ b/Krzysztof_Lipski_lab_9_i_10/dane_sekwencji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klips\Documents\PJATK\6 - Letni\PBIO\PBIO\Krzysztof_Lipski_lab_9_i_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B688818-D82C-4D22-8DC9-568C9C1B6899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E482BE6-857C-496F-B575-50EBD1FE77F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{709A0AEE-72BB-461B-B4F5-601B814F07D1}"/>
+    <workbookView xWindow="16335" yWindow="0" windowWidth="22170" windowHeight="20985" xr2:uid="{709A0AEE-72BB-461B-B4F5-601B814F07D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sekwencja</t>
   </si>
@@ -75,70 +75,13 @@
   </si>
   <si>
     <t>RALKLPKA</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +89,18 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,16 +119,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{04D00FD4-3E56-4CEE-A1B8-D0BE59687BAC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,7 +463,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,124 +473,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
+      <c r="B2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
+      <c r="B5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+      <c r="B8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
+      <c r="C9" s="1">
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
+      <c r="B10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
+      <c r="B11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
